--- a/tests/_resources/example.xlsx
+++ b/tests/_resources/example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Move</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>/source-directory/c/e/data</t>
+  </si>
+  <si>
+    <t>Copy</t>
   </si>
 </sst>
 </file>
@@ -440,18 +443,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="26" width="8.6640625" style="1" customWidth="1"/>
     <col min="27" max="16384" width="14.44140625" style="1"/>
   </cols>
@@ -565,7 +568,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>21</v>
@@ -1542,7 +1545,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E14">
-      <formula1>"Not defined,Move,Delete"</formula1>
+      <formula1>"Not defined,Copy,Move,Delete"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/tests/_resources/example.xlsx
+++ b/tests/_resources/example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Move</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Copy</t>
+  </si>
+  <si>
+    <t>Ignore</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -511,7 +514,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -1545,7 +1548,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E14">
-      <formula1>"Not defined,Copy,Move,Delete"</formula1>
+      <formula1>"Not defined,Ignore,Copy,Move,Delete"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/tests/_resources/example.xlsx
+++ b/tests/_resources/example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pstore.bas.roche.com\home\migration\directory-tree-excel\tests\_resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pstore.bas.roche.com\scratch\u\scotlana\l2-migrations-dry-run\lib\pygrate\tests\_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Move</t>
   </si>
@@ -71,9 +71,6 @@
     <t>/target-directory/c/d</t>
   </si>
   <si>
-    <t>/source-directory/c/d/Pipfile</t>
-  </si>
-  <si>
     <t>/source-directory/c/d/results</t>
   </si>
   <si>
@@ -99,6 +96,12 @@
   </si>
   <si>
     <t>Ignore</t>
+  </si>
+  <si>
+    <t>/source-directory/c/e/ignore</t>
+  </si>
+  <si>
+    <t>/source-directory/c/d/ignore</t>
   </si>
 </sst>
 </file>
@@ -442,11 +445,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Z976"/>
+  <dimension ref="A1:Z977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -514,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -540,17 +543,20 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>1</v>
@@ -558,31 +564,38 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1545,9 +1558,10 @@
     <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E14">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E15">
       <formula1>"Not defined,Ignore,Copy,Move,Delete"</formula1>
     </dataValidation>
   </dataValidations>
